--- a/Log.xlsx
+++ b/Log.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex Plagman\Source\Repos\MonoGame\Tyrais RPG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex Plagman\Source\Repos\MonoGame\Broken Shadows\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Date</t>
   </si>
@@ -44,7 +44,36 @@
     <t xml:space="preserve">Revised Level loading - now contains spawn data. Added OriginPosition to GameObject. Player Creation. Player movement - WASD key bindings. Levels can now be irregular. Fixed level data orientation. Tile movement now free. Player/Tile colision checks. Added input delay for better diagonal handling, holding down a key skips the delay. </t>
   </si>
   <si>
-    <t>Player position now updates while grid is moving to prevent the sprite from jumping around. Removed IsMoving boolean. Levels can now have gaps within their bounds. Renamed GamePlay classes/variables to OverWorld.</t>
+    <r>
+      <t xml:space="preserve">Player position now updates while grid is moving to prevent the sprite from jumping around. Removed IsMoving boolean. Levels can now have gaps within their bounds. Renamed GamePlay classes/variables to OverWorld. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Renamed project to "Broken Shadows". </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Migrated Level loading to read from an Xml file and divided LoadLevel() into separate methods.</t>
+    </r>
+  </si>
+  <si>
+    <t>Total Hours Spent Programming:</t>
+  </si>
+  <si>
+    <t>Total Days Worked:</t>
   </si>
 </sst>
 </file>
@@ -91,7 +120,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -109,6 +138,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -118,7 +148,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
@@ -139,15 +178,6 @@
         </bottom>
       </border>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -162,12 +192,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C5" totalsRowShown="0" tableBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C5" totalsRowShown="0" tableBorderDxfId="6">
   <autoFilter ref="A1:C5"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Date" dataDxfId="2" totalsRowDxfId="6"/>
-    <tableColumn id="2" name="Hours" dataDxfId="1" totalsRowDxfId="5"/>
-    <tableColumn id="3" name="Description" dataDxfId="0" totalsRowDxfId="4"/>
+    <tableColumn id="1" name="Date" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="2" name="Hours" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="3" name="Description" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -436,20 +466,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.42578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="4"/>
-    <col min="3" max="3" width="172.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="166.42578125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="29.28515625" customWidth="1"/>
+    <col min="6" max="6" width="6.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -460,7 +492,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>42404</v>
       </c>
@@ -470,8 +502,15 @@
       <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="4">
+        <f>SUM(Table1[Hours])</f>
+        <v>16.5</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>42405</v>
       </c>
@@ -481,8 +520,15 @@
       <c r="C3" s="10" t="s">
         <v>4</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="11">
+        <f>COUNT(Table1[Date])</f>
+        <v>4</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>42406</v>
       </c>
@@ -493,12 +539,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>42407</v>
       </c>
       <c r="B5" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>6</v>

--- a/Log.xlsx
+++ b/Log.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -42,6 +42,12 @@
   </si>
   <si>
     <t xml:space="preserve">Revised Level loading - now contains spawn data. Added OriginPosition to GameObject. Player Creation. Player movement - WASD key bindings. Levels can now be irregular. Fixed level data orientation. Tile movement now free. Player/Tile colision checks. Added input delay for better diagonal handling, holding down a key skips the delay. </t>
+  </si>
+  <si>
+    <t>Total Hours Spent Programming:</t>
+  </si>
+  <si>
+    <t>Total Days Worked:</t>
   </si>
   <si>
     <r>
@@ -66,14 +72,14 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Migrated Level loading to read from an Xml file and divided LoadLevel() into separate methods.</t>
+      <t>Migrated Level loading to read from an Xml file and divided LoadLevel() into separate methods. Successfully changed xml importing to convert to xnb (4 hours for this? really?).</t>
     </r>
   </si>
   <si>
-    <t>Total Hours Spent Programming:</t>
-  </si>
-  <si>
-    <t>Total Days Worked:</t>
+    <t>Next Up: Moveable tile movement.</t>
+  </si>
+  <si>
+    <t>Finished level 1 xml file. Combined level layout/metadata. Changed jagged arrays to rectangular. Diagional movement now checks adjacent tiles - can no longer move diagonally through walls. Added IsRigid property to tiles + moveable tile type. Updated player texture. Grid panning now uses a grid step constant, which is 1/2 the player movement speed.</t>
   </si>
 </sst>
 </file>
@@ -192,8 +198,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C5" totalsRowShown="0" tableBorderDxfId="6">
-  <autoFilter ref="A1:C5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C6" totalsRowShown="0" tableBorderDxfId="6">
+  <autoFilter ref="A1:C6"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Date" dataDxfId="5" totalsRowDxfId="4"/>
     <tableColumn id="2" name="Hours" dataDxfId="3" totalsRowDxfId="2"/>
@@ -466,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -503,11 +509,11 @@
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2" s="4">
         <f>SUM(Table1[Hours])</f>
-        <v>16.5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -521,11 +527,11 @@
         <v>4</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3" s="11">
         <f>COUNT(Table1[Date])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -539,15 +545,31 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>42407</v>
       </c>
       <c r="B5" s="9">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>42408</v>
+      </c>
+      <c r="B6" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Log.xlsx
+++ b/Log.xlsx
@@ -76,10 +76,33 @@
     </r>
   </si>
   <si>
-    <t>Next Up: Moveable tile movement.</t>
-  </si>
-  <si>
-    <t>Finished level 1 xml file. Combined level layout/metadata. Changed jagged arrays to rectangular. Diagional movement now checks adjacent tiles - can no longer move diagonally through walls. Added IsRigid property to tiles + moveable tile type. Updated player texture. Grid panning now uses a grid step constant, which is 1/2 the player movement speed.</t>
+    <r>
+      <t xml:space="preserve">Finished level 1 xml file. Combined level layout/metadata. Changed jagged arrays to rectangular. Diagional movement now checks adjacent tiles - can no longer move diagonally through walls. Added IsRigid property to tiles + moveable tile type. Updated player texture. Grid panning now uses a grid step constant, which is 1/2 the player movement speed. Added support for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>moveable tiles</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, which only move when the player can.</t>
+    </r>
+  </si>
+  <si>
+    <t>Next Up: Moveable tile animation.</t>
   </si>
 </sst>
 </file>
@@ -475,7 +498,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,7 +536,7 @@
       </c>
       <c r="F2" s="4">
         <f>SUM(Table1[Hours])</f>
-        <v>22</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -556,20 +579,20 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>42408</v>
       </c>
       <c r="B6" s="9">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Log.xlsx
+++ b/Log.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Date</t>
   </si>
@@ -102,7 +102,48 @@
     </r>
   </si>
   <si>
-    <t>Next Up: Moveable tile animation.</t>
+    <t>Tile movement is now animated!</t>
+  </si>
+  <si>
+    <t>Added pause/start menu foundations.</t>
+  </si>
+  <si>
+    <t>Added level progression.</t>
+  </si>
+  <si>
+    <t>Changed menu colors, added help menu (how to play) + localization, added keybinds to focus on player (Lshift) and reset grid panning (Tab). The "R" key now resets the current level rather than the entire game. Added new fonts! Added lighting!</t>
+  </si>
+  <si>
+    <r>
+      <t>Changed grid to naturally center on player. Pressing shift toggles focus. Tab only resets grid if non-centered. Fixed level change bug (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DISABLED LIGHTS TEMPORARILY, ROOT CAUSE NOT FOUND</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>). Changed lightmask texture.</t>
+    </r>
+  </si>
+  <si>
+    <t>Added larger light variant, removed unecessary accessors. Fixed centered-movement bug! Added instructions!</t>
+  </si>
+  <si>
+    <t>Next Up: Menu shader, options menu, saving.</t>
   </si>
 </sst>
 </file>
@@ -221,8 +262,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C6" totalsRowShown="0" tableBorderDxfId="6">
-  <autoFilter ref="A1:C6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C12" totalsRowShown="0" tableBorderDxfId="6">
+  <autoFilter ref="A1:C12"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Date" dataDxfId="5" totalsRowDxfId="4"/>
     <tableColumn id="2" name="Hours" dataDxfId="3" totalsRowDxfId="2"/>
@@ -495,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -536,7 +577,7 @@
       </c>
       <c r="F2" s="4">
         <f>SUM(Table1[Hours])</f>
-        <v>24.5</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -554,7 +595,7 @@
       </c>
       <c r="F3" s="11">
         <f>COUNT(Table1[Date])</f>
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -590,9 +631,75 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>42412</v>
+      </c>
+      <c r="B7" s="9">
+        <v>1</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>42428</v>
+      </c>
+      <c r="B8" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>42430</v>
+      </c>
+      <c r="B9" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>42431</v>
+      </c>
+      <c r="B10" s="9">
+        <v>4</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>42432</v>
+      </c>
+      <c r="B11" s="9">
+        <v>3</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>42433</v>
+      </c>
+      <c r="B12" s="9">
+        <v>4</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Log.xlsx
+++ b/Log.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Date</t>
   </si>
@@ -143,7 +143,55 @@
     <t>Added larger light variant, removed unecessary accessors. Fixed centered-movement bug! Added instructions!</t>
   </si>
   <si>
-    <t>Next Up: Menu shader, options menu, saving.</t>
+    <t>Added ambient level colors / lighting control!</t>
+  </si>
+  <si>
+    <t>[9:32:00 PM] Paul: Maybe some lights sources could flicker</t>
+  </si>
+  <si>
+    <t>[9:32:08 PM] Paul: Like how in Minecraft light sources do that</t>
+  </si>
+  <si>
+    <t>[9:33:20 PM] Paul: Maybe the theme/story could involve the levels being abandoned and overgrown similar to Portal 2</t>
+  </si>
+  <si>
+    <t>[9:33:31 PM] Paul: Which would have a place for flicking lights</t>
+  </si>
+  <si>
+    <t>[9:35:27 PM] Paul: Oh, maybe enemies wouldn't attack the player, but they would disrupt the level</t>
+  </si>
+  <si>
+    <t>[9:35:33 PM] Paul: Like locking the sliding tiles</t>
+  </si>
+  <si>
+    <t>[9:35:39 PM] Paul: Or moving solid walls</t>
+  </si>
+  <si>
+    <t>[9:36:38 PM] Paul: The AI would check to see if an action will make the level unbeatable.</t>
+  </si>
+  <si>
+    <t>[9:38:22 PM] Paul: Maybe you can't kill the enemies but you can trick them to moving</t>
+  </si>
+  <si>
+    <t>[9:38:25 PM] Paul: And trap them</t>
+  </si>
+  <si>
+    <t>[9:38:31 PM] Paul: And possibly use them to your advantage</t>
+  </si>
+  <si>
+    <t>[9:41:22 PM | Edited 9:41:29 PM] Paul: The enemies are gremlins.</t>
+  </si>
+  <si>
+    <t>[9:41:44 PM] Paul: Wikipedia states "A gremlin is a creature commonly depicted as mischievous and mechanically oriented"</t>
+  </si>
+  <si>
+    <t>[9:41:58 PM] Paul: "mechanically oriented" Fits in nicely</t>
+  </si>
+  <si>
+    <t>Added triangle light, moved player/tile lights to belong to their parents. Lights can rotate. Revised light loading/updating (via enum). Player lights now match direction.</t>
+  </si>
+  <si>
+    <t>Next Up: Visibility, sounds, options menu, saving, enemies/lights,  disruptions, beatable level checks, flickering lights</t>
   </si>
 </sst>
 </file>
@@ -262,8 +310,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C12" totalsRowShown="0" tableBorderDxfId="6">
-  <autoFilter ref="A1:C12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C14" totalsRowShown="0" tableBorderDxfId="6">
+  <autoFilter ref="A1:C14"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Date" dataDxfId="5" totalsRowDxfId="4"/>
     <tableColumn id="2" name="Hours" dataDxfId="3" totalsRowDxfId="2"/>
@@ -536,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,7 +625,7 @@
       </c>
       <c r="F2" s="4">
         <f>SUM(Table1[Hours])</f>
-        <v>37.5</v>
+        <v>44.5</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -595,7 +643,7 @@
       </c>
       <c r="F3" s="11">
         <f>COUNT(Table1[Date])</f>
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -691,15 +739,107 @@
         <v>42433</v>
       </c>
       <c r="B12" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>42434</v>
+      </c>
+      <c r="B13" s="9">
+        <v>3</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>42435</v>
+      </c>
+      <c r="B14" s="9">
+        <v>3</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C21" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C22" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C23" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C24" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C25" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C26" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C27" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C28" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C29" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C30" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C31" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C32" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Log.xlsx
+++ b/Log.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Date</t>
   </si>
@@ -191,7 +191,13 @@
     <t>Added triangle light, moved player/tile lights to belong to their parents. Lights can rotate. Revised light loading/updating (via enum). Player lights now match direction.</t>
   </si>
   <si>
-    <t>Next Up: Visibility, sounds, options menu, saving, enemies/lights,  disruptions, beatable level checks, flickering lights</t>
+    <t xml:space="preserve">Revamped lighting to use visibility. </t>
+  </si>
+  <si>
+    <t>Next Up: Blurring, sounds, options menu, saving, enemies/lights,  disruptions, beatable level checks, flickering lights</t>
+  </si>
+  <si>
+    <t>Cleaned up code, attempted to fix visiblity issues</t>
   </si>
 </sst>
 </file>
@@ -238,7 +244,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -257,6 +263,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -310,8 +319,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C14" totalsRowShown="0" tableBorderDxfId="6">
-  <autoFilter ref="A1:C14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C16" totalsRowShown="0" tableBorderDxfId="6">
+  <autoFilter ref="A1:C16"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Date" dataDxfId="5" totalsRowDxfId="4"/>
     <tableColumn id="2" name="Hours" dataDxfId="3" totalsRowDxfId="2"/>
@@ -584,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -625,7 +634,7 @@
       </c>
       <c r="F2" s="4">
         <f>SUM(Table1[Hours])</f>
-        <v>44.5</v>
+        <v>52.5</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -643,7 +652,7 @@
       </c>
       <c r="F3" s="11">
         <f>COUNT(Table1[Date])</f>
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -767,78 +776,100 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>42436</v>
+      </c>
+      <c r="B15" s="9">
+        <v>5</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>32</v>
       </c>
     </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <v>42441</v>
+      </c>
+      <c r="B16" s="9">
+        <v>3</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C20" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C21" s="3" t="s">
-        <v>18</v>
+      <c r="C20" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C23" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C24" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C25" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C26" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C27" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C28" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C29" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C30" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C31" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C32" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C35" s="3" t="s">
         <v>30</v>
       </c>
     </row>

--- a/Log.xlsx
+++ b/Log.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Date</t>
   </si>
@@ -198,6 +198,12 @@
   </si>
   <si>
     <t>Cleaned up code, attempted to fix visiblity issues</t>
+  </si>
+  <si>
+    <t>Visibility now uses simplified segments, triangle issues?</t>
+  </si>
+  <si>
+    <t>Fullscreen toggling + UI refresh, level editor foundation / UI</t>
   </si>
 </sst>
 </file>
@@ -319,8 +325,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C16" totalsRowShown="0" tableBorderDxfId="6">
-  <autoFilter ref="A1:C16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C18" totalsRowShown="0" tableBorderDxfId="6">
+  <autoFilter ref="A1:C18"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Date" dataDxfId="5" totalsRowDxfId="4"/>
     <tableColumn id="2" name="Hours" dataDxfId="3" totalsRowDxfId="2"/>
@@ -593,10 +599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -634,7 +640,7 @@
       </c>
       <c r="F2" s="4">
         <f>SUM(Table1[Hours])</f>
-        <v>52.5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -652,7 +658,7 @@
       </c>
       <c r="F3" s="11">
         <f>COUNT(Table1[Date])</f>
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -798,78 +804,100 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <v>42443</v>
+      </c>
+      <c r="B17" s="9">
+        <v>5</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <v>42447</v>
+      </c>
+      <c r="B18" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C22" s="3" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C24" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C23" s="3" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C25" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C24" s="3" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C26" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C25" s="3" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C27" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C26" s="3" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C28" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C27" s="3" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C29" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C28" s="3" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C30" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C29" s="3" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C31" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C30" s="3" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C32" s="3" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C31" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C32" s="3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C36" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C37" s="3" t="s">
         <v>30</v>
       </c>
     </row>

--- a/Log.xlsx
+++ b/Log.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex Plagman\Source\Repos\MonoGame\Broken Shadows\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming\GitHub\MonoGame\Broken Shadows\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -194,9 +194,6 @@
     <t xml:space="preserve">Revamped lighting to use visibility. </t>
   </si>
   <si>
-    <t>Next Up: Blurring, sounds, options menu, saving, enemies/lights,  disruptions, beatable level checks, flickering lights</t>
-  </si>
-  <si>
     <t>Cleaned up code, attempted to fix visiblity issues</t>
   </si>
   <si>
@@ -204,6 +201,9 @@
   </si>
   <si>
     <t>Fullscreen toggling + UI refresh, level editor foundation / UI</t>
+  </si>
+  <si>
+    <t>Next Up: Light fix, sounds, options menu, saving, enemies/lights,  disruptions, beatable level checks, flickering lights</t>
   </si>
 </sst>
 </file>
@@ -601,8 +601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -801,7 +801,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -812,7 +812,7 @@
         <v>5</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -823,12 +823,12 @@
         <v>2.5</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
